--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/港澳台资本金.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/港澳台资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,365 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6.34494</v>
-      </c>
-      <c r="C2" t="n">
-        <v>30.94463</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.62629</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>1.0762</v>
-      </c>
-      <c r="G2" t="n">
-        <v>13.45119</v>
-      </c>
-      <c r="H2" t="n">
-        <v>44.07713</v>
-      </c>
-      <c r="I2" t="n">
-        <v>14.57266</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.88297</v>
-      </c>
-      <c r="K2" t="n">
-        <v>406.57502</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7.29919</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.00987</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.96526</v>
-      </c>
-      <c r="O2" t="n">
-        <v>7.86917</v>
-      </c>
-      <c r="P2" t="n">
-        <v>13.00379</v>
-      </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="n">
-        <v>2.41331</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.26849</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>6.34709</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.94856</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.45524</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.35008</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>59.51224</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>31.53583</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>15.36025</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.60967</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10.36726</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
-        <v>18.21884</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.1525</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12.28895</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>7.99938</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>19.78249</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.30734</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>8.67343</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>11.90799</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>10.39969</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>33.3416</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.0115</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4.88102</v>
-      </c>
-      <c r="C3" t="n">
-        <v>35.35125</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.322</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>1.28635</v>
-      </c>
-      <c r="G3" t="n">
-        <v>16.96035</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20.60871</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16.0604</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7.26612</v>
-      </c>
-      <c r="K3" t="n">
-        <v>493.86725</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7.55045</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.7093</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.23608</v>
-      </c>
-      <c r="O3" t="n">
-        <v>7.09083</v>
-      </c>
-      <c r="P3" t="n">
-        <v>12.19941</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
-        <v>1.81906</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.17184</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>6.73822</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.13953</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.83963</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.18891</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>96.89209</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>32.44878</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15.05749</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.67281</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>33.55586</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>31.9351</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>16.06862</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.22081</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11.87855</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.378299999999999</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17.60602</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.62421</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>9.071199999999999</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>7.75937</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>18.29903</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>37.97955</v>
-      </c>
-      <c r="AO3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>7.32349</v>
-      </c>
-      <c r="C4" t="n">
-        <v>34.26391</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.51336</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0.67013</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13.91142</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.40393</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17.97284</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.20342</v>
-      </c>
-      <c r="K4" t="n">
-        <v>433.35783</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.38135</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.26851</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.05113</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11.1348</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9.24301</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>1.90297</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.36012</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>2.2171</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.14488</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.85123</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.1908</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>76.9683</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>37.85149</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>16.12638</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.59448</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>35.15383</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>26.36508</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>14.68574</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.66844</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.65059</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6.0241</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>16.0479</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.59633</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>9.553850000000001</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>9.40006</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>20.43122</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>27.17469</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.05695</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
